--- a/config/journalClose.xlsx
+++ b/config/journalClose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{D0567261-BC65-4AF6-8E07-2DF890D750FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A72F889-842D-4CA4-93FD-EC842E6F692E}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{D0567261-BC65-4AF6-8E07-2DF890D750FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8AE9684-9AF3-475F-A091-AF24E6A68FE9}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="2556" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -412,11 +412,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>(con): constant, 
-(sin): sinusoidal, 
-(tri): triangular</t>
-  </si>
-  <si>
     <t>0) output filter is deactivated, 
 1) output filter is activated</t>
   </si>
@@ -569,12 +564,6 @@
   </si>
   <si>
     <t>con</t>
-  </si>
-  <si>
-    <t>(FF): fundamental frequency, 
-(CB): carrier based, 
-(SV): space vector based, 
-(OPP): optimal pulse pattern</t>
   </si>
   <si>
     <t>(SE): single edge, 
@@ -819,6 +808,19 @@
   </si>
   <si>
     <t>HY</t>
+  </si>
+  <si>
+    <t>(FF): fundamental frequency, 
+(CB): carrier based, 
+(SV): space vector based, 
+(OPP): optimal pulse pattern,
+(OSM): optimal subcycle modulation</t>
+  </si>
+  <si>
+    <t>(con): constant, 
+(sin): sinusoidal, 
+(tri): triangular,
+(tar): trapezoidal</t>
   </si>
 </sst>
 </file>
@@ -1444,6 +1446,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1764,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1780,7 +1786,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1788,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1812,7 +1818,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K13" s="65"/>
       <c r="L13" s="66"/>
@@ -1837,13 +1843,13 @@
         <v>16</v>
       </c>
       <c r="J14" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="41" t="s">
         <v>237</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1867,10 +1873,10 @@
       </c>
       <c r="J15" s="42"/>
       <c r="K15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L15" s="43" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1878,13 +1884,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1894,10 +1900,10 @@
       </c>
       <c r="J16" s="44"/>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L16" s="43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1906,10 +1912,10 @@
       </c>
       <c r="J17" s="45"/>
       <c r="K17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L17" s="43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1918,10 +1924,10 @@
       </c>
       <c r="J18" s="46"/>
       <c r="K18" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L18" s="48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2023,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>22</v>
@@ -2465,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FBFCB-8244-4B83-8CC9-EBD2890613E5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2498,7 +2504,7 @@
     </row>
     <row r="2" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="36" t="s">
@@ -2582,7 +2588,7 @@
       <c r="A7" s="26"/>
       <c r="B7" s="49"/>
       <c r="C7" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>103</v>
@@ -2598,7 +2604,7 @@
       <c r="A8" s="26"/>
       <c r="B8" s="49"/>
       <c r="C8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>104</v>
@@ -2614,7 +2620,7 @@
       <c r="A9" s="26"/>
       <c r="B9" s="49"/>
       <c r="C9" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>105</v>
@@ -2630,7 +2636,7 @@
       <c r="A10" s="26"/>
       <c r="B10" s="49"/>
       <c r="C10" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>106</v>
@@ -2646,7 +2652,7 @@
       <c r="A11" s="26"/>
       <c r="B11" s="49"/>
       <c r="C11" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>107</v>
@@ -2662,7 +2668,7 @@
       <c r="A12" s="26"/>
       <c r="B12" s="49"/>
       <c r="C12" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>108</v>
@@ -2678,7 +2684,7 @@
       <c r="A13" s="26"/>
       <c r="B13" s="49"/>
       <c r="C13" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>109</v>
@@ -2694,7 +2700,7 @@
       <c r="A14" s="26"/>
       <c r="B14" s="49"/>
       <c r="C14" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>110</v>
@@ -2706,11 +2712,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="49"/>
       <c r="C15" s="10" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>111</v>
@@ -2726,7 +2732,7 @@
       <c r="A16" s="27"/>
       <c r="B16" s="50"/>
       <c r="C16" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>112</v>
@@ -2751,7 +2757,7 @@
       <formula2>10000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15" xr:uid="{57DF397D-0405-4640-86A0-348060BC68E3}">
-      <formula1>"con, sin, tri"</formula1>
+      <formula1>"con, sin, tri, tra"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2762,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3F0A-B85A-4162-A12D-AC7176B54015}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2793,21 +2799,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>22</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="55" t="s">
         <v>22</v>
@@ -2835,19 +2841,19 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>22</v>
@@ -2855,19 +2861,19 @@
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="55" t="s">
         <v>22</v>
@@ -2875,13 +2881,13 @@
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>41</v>
@@ -2895,16 +2901,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -2915,16 +2921,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -2938,13 +2944,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -2955,16 +2961,16 @@
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -2976,13 +2982,13 @@
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
@@ -2993,13 +2999,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>27</v>
@@ -3013,19 +3019,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F13" s="55" t="s">
         <v>22</v>
@@ -3033,19 +3039,19 @@
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>22</v>
@@ -3053,19 +3059,19 @@
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D15" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>22</v>
@@ -3073,16 +3079,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="11">
         <v>20000</v>
@@ -3093,16 +3099,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
@@ -3113,16 +3119,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="11">
         <v>100</v>
@@ -3133,16 +3139,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -3153,16 +3159,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="11">
         <v>0.1</v>
@@ -3173,16 +3179,16 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="24">
         <v>10</v>
@@ -3193,19 +3199,19 @@
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>22</v>
@@ -3213,19 +3219,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F23" s="55" t="s">
         <v>22</v>
@@ -3233,19 +3239,19 @@
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" s="55" t="s">
         <v>22</v>
@@ -3253,16 +3259,16 @@
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
@@ -3273,16 +3279,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="11">
         <v>1</v>
@@ -3293,16 +3299,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="11">
         <v>1</v>
@@ -3313,19 +3319,19 @@
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F28" s="55" t="s">
         <v>22</v>
@@ -3333,16 +3339,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>97</v>
@@ -3353,16 +3359,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
@@ -3373,16 +3379,16 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="24">
         <v>1</v>
@@ -3393,16 +3399,16 @@
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
@@ -3416,13 +3422,13 @@
         <v>48</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" s="24">
         <v>0</v>
@@ -3434,7 +3440,7 @@
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{C4E97F42-90A4-439F-B50C-11CF79F6F56D}">
-      <formula1>"FF, CB, SV, OPP"</formula1>
+      <formula1>"FF, CB, SV, OPP, OSM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{59C00FD6-B4B9-40ED-B5DF-7556515D16B9}">
       <formula1>"SE, DE"</formula1>
@@ -3445,7 +3451,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{9D931B16-8DBB-4320-9C50-FA16D061031E}">
       <formula1>"RE, FE, SM, AM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E9 E10 E11 E25 E32" xr:uid="{7BE6246F-D0E4-4835-A57D-61D617CCED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E9:E11 E25 E32" xr:uid="{7BE6246F-D0E4-4835-A57D-61D617CCED04}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13" xr:uid="{7673DE90-8C38-46FF-9FB4-B656D095FE62}">
